--- a/Stocks Bollinger Band Width.xlsx
+++ b/Stocks Bollinger Band Width.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Stocks</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>ASCM</t>
-  </si>
-  <si>
-    <t>UEGC</t>
   </si>
   <si>
     <t>AIND</t>
@@ -440,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,14 +616,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
